--- a/tests/data/sampleinfo.xlsx
+++ b/tests/data/sampleinfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="460" windowWidth="26960" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="4460" yWindow="2820" windowWidth="26960" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H3" sqref="H3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,8 +472,8 @@
         <v>Fev_DR_m70_1623.chr1.bw</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE(B2,".sj.bed.gz")</f>
-        <v>Fev_DR_m70_1623.sj.bed.gz</v>
+        <f>CONCATENATE(B2,".chr1.sj.bed.gz")</f>
+        <v>Fev_DR_m70_1623.chr1.sj.bed.gz</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -502,8 +502,8 @@
         <v>Fev_CSm_m70_1624.chr1.bw</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H5" si="3">CONCATENATE(B3,".sj.bed.gz")</f>
-        <v>Fev_CSm_m70_1624.sj.bed.gz</v>
+        <f t="shared" ref="H3:H5" si="3">CONCATENATE(B3,".chr1.sj.bed.gz")</f>
+        <v>Fev_CSm_m70_1624.chr1.sj.bed.gz</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -533,7 +533,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
-        <v>Fev_DR_m71_1625.sj.bed.gz</v>
+        <v>Fev_DR_m71_1625.chr1.sj.bed.gz</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
-        <v>Fev_CSm_m71_1626.sj.bed.gz</v>
+        <v>Fev_CSm_m71_1626.chr1.sj.bed.gz</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/sampleinfo.xlsx
+++ b/tests/data/sampleinfo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="2820" windowWidth="26960" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37220" windowHeight="12800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>sample_id</t>
   </si>
@@ -59,9 +59,6 @@
     <t>bigwig</t>
   </si>
   <si>
-    <t>bam</t>
-  </si>
-  <si>
     <t>Fev_DR</t>
   </si>
   <si>
@@ -69,6 +66,30 @@
   </si>
   <si>
     <t>sjbed</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>totbp</t>
+  </si>
+  <si>
+    <t>covbp</t>
+  </si>
+  <si>
+    <t>acov</t>
+  </si>
+  <si>
+    <t>starbed</t>
+  </si>
+  <si>
+    <t>chr1</t>
+  </si>
+  <si>
+    <t>org_sid</t>
+  </si>
+  <si>
+    <t>org_name</t>
   </si>
 </sst>
 </file>
@@ -402,25 +423,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" customWidth="1"/>
-    <col min="7" max="7" width="35.5" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,147 +451,282 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A5" si="0">CONCATENATE(D2,".",C2)</f>
+        <v>1623.chr1</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B5" si="1">CONCATENATE(E2,".",C2)</f>
+        <v>Fev_DR_m70_1623.chr1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1623</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1623</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G5" si="2">CONCATENATE(E2,"_star.",C2,".bed.gz")</f>
+        <v>Fev_DR_m70_1623_star.chr1.bed.gz</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H5" si="3">CONCATENATE( E2, ".",C2,".SJ.out.tab")</f>
+        <v>Fev_DR_m70_1623.chr1.SJ.out.tab</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I5" si="4">CONCATENATE(E2, ".",C2,".bw")</f>
+        <v>Fev_DR_m70_1623.chr1.bw</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J5" si="5">CONCATENATE(E2,".",C2,".sj.bed.gz")</f>
+        <v>Fev_DR_m70_1623.chr1.sj.bed.gz</v>
+      </c>
+      <c r="K2">
+        <v>145699916</v>
+      </c>
+      <c r="L2">
+        <v>9142973</v>
+      </c>
+      <c r="M2">
+        <v>15.935726377</v>
+      </c>
+      <c r="N2" s="2">
         <v>24313418</v>
       </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE(B2, ".bam")</f>
-        <v>Fev_DR_m70_1623.bam</v>
-      </c>
-      <c r="F2" t="str">
-        <f>CONCATENATE( B2, ".chr1.SJ.out.tab")</f>
-        <v>Fev_DR_m70_1623.chr1.SJ.out.tab</v>
-      </c>
-      <c r="G2" t="str">
-        <f>CONCATENATE(B2, ".chr1.bw")</f>
-        <v>Fev_DR_m70_1623.chr1.bw</v>
-      </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE(B2,".chr1.sj.bed.gz")</f>
-        <v>Fev_DR_m70_1623.chr1.sj.bed.gz</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>1624.chr1</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="1"/>
+        <v>Fev_CSm_m70_1624.chr1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
         <v>1624</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>Fev_CSm_m70_1624_star.chr1.bed.gz</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>Fev_CSm_m70_1624.chr1.SJ.out.tab</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="4"/>
+        <v>Fev_CSm_m70_1624.chr1.bw</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="5"/>
+        <v>Fev_CSm_m70_1624.chr1.sj.bed.gz</v>
+      </c>
+      <c r="K3">
+        <v>158992441</v>
+      </c>
+      <c r="L3">
+        <v>11276760</v>
+      </c>
+      <c r="M3">
+        <v>14.0991243052</v>
+      </c>
+      <c r="N3" s="2">
         <v>25857770</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="0">CONCATENATE(B3, ".bam")</f>
-        <v>Fev_CSm_m70_1624.bam</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F5" si="1">CONCATENATE( B3, ".chr1.SJ.out.tab")</f>
-        <v>Fev_CSm_m70_1624.chr1.SJ.out.tab</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G5" si="2">CONCATENATE(B3, ".chr1.bw")</f>
-        <v>Fev_CSm_m70_1624.chr1.bw</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H5" si="3">CONCATENATE(B3,".chr1.sj.bed.gz")</f>
-        <v>Fev_CSm_m70_1624.chr1.sj.bed.gz</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>1625.chr1</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fev_DR_m71_1625.chr1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
         <v>1625</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>26260366</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>Fev_DR_m71_1625.bam</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>Fev_DR_m71_1625.chr1.SJ.out.tab</v>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
-        <v>Fev_DR_m71_1625.chr1.bw</v>
+        <v>Fev_DR_m71_1625_star.chr1.bed.gz</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
+        <v>Fev_DR_m71_1625.chr1.SJ.out.tab</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="4"/>
+        <v>Fev_DR_m71_1625.chr1.bw</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
         <v>Fev_DR_m71_1625.chr1.sj.bed.gz</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="K4">
+        <v>161359243</v>
+      </c>
+      <c r="L4">
+        <v>13946848</v>
+      </c>
+      <c r="M4">
+        <v>11.569584969999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>26260366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>1626.chr1</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fev_CSm_m71_1626.chr1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
         <v>1626</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>26083777</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Fev_CSm_m71_1626.bam</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fev_CSm_m71_1626.chr1.SJ.out.tab</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
-        <v>Fev_CSm_m71_1626.chr1.bw</v>
+        <v>Fev_CSm_m71_1626_star.chr1.bed.gz</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
+        <v>Fev_CSm_m71_1626.chr1.SJ.out.tab</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="4"/>
+        <v>Fev_CSm_m71_1626.chr1.bw</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
         <v>Fev_CSm_m71_1626.chr1.sj.bed.gz</v>
       </c>
+      <c r="K5">
+        <v>161885717</v>
+      </c>
+      <c r="L5">
+        <v>11661445</v>
+      </c>
+      <c r="M5">
+        <v>13.8821318456</v>
+      </c>
+      <c r="N5" s="2">
+        <v>26083777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E5">
-    <sortCondition ref="A2:A5"/>
+  <sortState ref="D6:H9">
+    <sortCondition ref="D2:D5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/data/sampleinfo.xlsx
+++ b/tests/data/sampleinfo.xlsx
@@ -80,9 +80,6 @@
     <t>acov</t>
   </si>
   <si>
-    <t>starbed</t>
-  </si>
-  <si>
     <t>chr1</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>org_name</t>
+  </si>
+  <si>
+    <t>mapbed</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,16 +454,16 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -498,7 +498,7 @@
         <v>Fev_DR_m70_1623.chr1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1623</v>
@@ -548,7 +548,7 @@
         <v>Fev_CSm_m70_1624.chr1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1624</v>
@@ -598,7 +598,7 @@
         <v>Fev_DR_m71_1625.chr1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1625</v>
@@ -648,7 +648,7 @@
         <v>Fev_CSm_m71_1626.chr1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1626</v>

--- a/tests/data/sampleinfo.xlsx
+++ b/tests/data/sampleinfo.xlsx
@@ -426,17 +426,17 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" customWidth="1"/>
     <col min="8" max="8" width="31.6640625" customWidth="1"/>
     <col min="9" max="9" width="27.83203125" customWidth="1"/>
     <col min="10" max="10" width="33.1640625" customWidth="1"/>
@@ -494,8 +494,8 @@
         <v>1623.chr1</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B5" si="1">CONCATENATE(E2,".",C2)</f>
-        <v>Fev_DR_m70_1623.chr1</v>
+        <f>CONCATENATE(E2,".",C2,".17mb")</f>
+        <v>Fev_DR_m70_1623.chr1.17mb</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -510,19 +510,19 @@
         <v>10</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G5" si="2">CONCATENATE(E2,"_star.",C2,".bed.gz")</f>
-        <v>Fev_DR_m70_1623_star.chr1.bed.gz</v>
+        <f>CONCATENATE(E2,"_star.",C2,".17mb.bed.gz")</f>
+        <v>Fev_DR_m70_1623_star.chr1.17mb.bed.gz</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H5" si="3">CONCATENATE( E2, ".",C2,".SJ.out.tab")</f>
+        <f t="shared" ref="H2:H5" si="1">CONCATENATE( E2, ".",C2,".SJ.out.tab")</f>
         <v>Fev_DR_m70_1623.chr1.SJ.out.tab</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I5" si="4">CONCATENATE(E2, ".",C2,".bw")</f>
+        <f t="shared" ref="I2:I5" si="2">CONCATENATE(E2, ".",C2,".bw")</f>
         <v>Fev_DR_m70_1623.chr1.bw</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J5" si="5">CONCATENATE(E2,".",C2,".sj.bed.gz")</f>
+        <f t="shared" ref="J2:J5" si="3">CONCATENATE(E2,".",C2,".sj.bed.gz")</f>
         <v>Fev_DR_m70_1623.chr1.sj.bed.gz</v>
       </c>
       <c r="K2">
@@ -544,8 +544,8 @@
         <v>1624.chr1</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="1"/>
-        <v>Fev_CSm_m70_1624.chr1</v>
+        <f t="shared" ref="B3:B5" si="4">CONCATENATE(E3,".",C3,".17mb")</f>
+        <v>Fev_CSm_m70_1624.chr1.17mb</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -560,19 +560,19 @@
         <v>8</v>
       </c>
       <c r="G3" t="str">
+        <f t="shared" ref="G3:G5" si="5">CONCATENATE(E3,"_star.",C3,".17mb.bed.gz")</f>
+        <v>Fev_CSm_m70_1624_star.chr1.17mb.bed.gz</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>Fev_CSm_m70_1624.chr1.SJ.out.tab</v>
+      </c>
+      <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>Fev_CSm_m70_1624_star.chr1.bed.gz</v>
-      </c>
-      <c r="H3" t="str">
+        <v>Fev_CSm_m70_1624.chr1.bw</v>
+      </c>
+      <c r="J3" t="str">
         <f t="shared" si="3"/>
-        <v>Fev_CSm_m70_1624.chr1.SJ.out.tab</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="4"/>
-        <v>Fev_CSm_m70_1624.chr1.bw</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="5"/>
         <v>Fev_CSm_m70_1624.chr1.sj.bed.gz</v>
       </c>
       <c r="K3">
@@ -594,8 +594,8 @@
         <v>1625.chr1</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>Fev_DR_m71_1625.chr1</v>
+        <f t="shared" si="4"/>
+        <v>Fev_DR_m71_1625.chr1.17mb</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -610,19 +610,19 @@
         <v>10</v>
       </c>
       <c r="G4" t="str">
+        <f t="shared" si="5"/>
+        <v>Fev_DR_m71_1625_star.chr1.17mb.bed.gz</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>Fev_DR_m71_1625.chr1.SJ.out.tab</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>Fev_DR_m71_1625_star.chr1.bed.gz</v>
-      </c>
-      <c r="H4" t="str">
+        <v>Fev_DR_m71_1625.chr1.bw</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>Fev_DR_m71_1625.chr1.SJ.out.tab</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="4"/>
-        <v>Fev_DR_m71_1625.chr1.bw</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="5"/>
         <v>Fev_DR_m71_1625.chr1.sj.bed.gz</v>
       </c>
       <c r="K4">
@@ -644,8 +644,8 @@
         <v>1626.chr1</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fev_CSm_m71_1626.chr1</v>
+        <f t="shared" si="4"/>
+        <v>Fev_CSm_m71_1626.chr1.17mb</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -660,19 +660,19 @@
         <v>8</v>
       </c>
       <c r="G5" t="str">
+        <f t="shared" si="5"/>
+        <v>Fev_CSm_m71_1626_star.chr1.17mb.bed.gz</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fev_CSm_m71_1626.chr1.SJ.out.tab</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>Fev_CSm_m71_1626_star.chr1.bed.gz</v>
-      </c>
-      <c r="H5" t="str">
+        <v>Fev_CSm_m71_1626.chr1.bw</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>Fev_CSm_m71_1626.chr1.SJ.out.tab</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fev_CSm_m71_1626.chr1.bw</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="5"/>
         <v>Fev_CSm_m71_1626.chr1.sj.bed.gz</v>
       </c>
       <c r="K5">
@@ -729,5 +729,6 @@
     <sortCondition ref="D2:D5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>